--- a/experiment_results/20201127_AGGREGATION_MODE_NORMALIZATION1/Email/4wise/0.95_.xlsx
+++ b/experiment_results/20201127_AGGREGATION_MODE_NORMALIZATION1/Email/4wise/0.95_.xlsx
@@ -468,19 +468,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -544,19 +544,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -633,19 +633,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -798,19 +798,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -836,19 +836,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -963,19 +963,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1128,19 +1128,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1293,19 +1293,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1331,19 +1331,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>117</v>
@@ -1708,7 +1708,7 @@
         <v>139</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -1788,19 +1788,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -1864,19 +1864,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -1953,19 +1953,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2118,19 +2118,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2283,19 +2283,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2448,19 +2448,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2524,19 +2524,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -2613,19 +2613,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2689,19 +2689,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -2787,10 +2787,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -2943,19 +2943,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3108,19 +3108,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3273,19 +3273,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3349,19 +3349,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -3447,10 +3447,10 @@
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3603,19 +3603,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3768,19 +3768,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3933,19 +3933,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -3971,19 +3971,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>117</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>247</v>
@@ -4263,19 +4263,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4428,19 +4428,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4504,19 +4504,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -4593,19 +4593,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4799,7 +4799,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>117</v>
@@ -4843,7 +4843,7 @@
         <v>139</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -4923,19 +4923,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -4999,19 +4999,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>247</v>
@@ -5088,19 +5088,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>135</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>247</v>
@@ -5164,19 +5164,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>247</v>
